--- a/medicine/Pharmacie/Triéthanolamine/Triéthanolamine.xlsx
+++ b/medicine/Pharmacie/Triéthanolamine/Triéthanolamine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tri%C3%A9thanolamine</t>
+          <t>Triéthanolamine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La triéthanolamine est aussi connue sous le nom de trolamine, ou le nom systématique 2,2',2-nitrilotriéthanol. Sa formule brute est C6H15NO3.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tri%C3%A9thanolamine</t>
+          <t>Triéthanolamine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Brûlures</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La trolamine est le principe actif de la Biafine, crème utilisée contre les brûlures et les plaies superficielles. D'après la Banque de données automatisée sur les médicaments[8], la trolamine a un effet analgésique en association avec de l'aspirine. C'est aussi un émulsifiant.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La trolamine est le principe actif de la Biafine, crème utilisée contre les brûlures et les plaies superficielles. D'après la Banque de données automatisée sur les médicaments, la trolamine a un effet analgésique en association avec de l'aspirine. C'est aussi un émulsifiant.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Tri%C3%A9thanolamine</t>
+          <t>Triéthanolamine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,10 +558,12 @@
           <t>Cosmétique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet ingrédient est employé comme compensateur de pH dans des préparations cosmétiques pour une vaste gamme de produits — lotion pour la peau, gels pour les yeux, crèmes hydratantes, shampoings, crème dépilatoire, mousse à raser, etc. La triéthanolamine est un allergène reconnu, à pouvoir allergisant modéré.
-Comme toutes les amines, elle peut créer des nitrosamines, mais ceci demeure peu probable avec les basses concentrations utilisées dans les produits cosmétiques. L'efficacité des crèmes antiride repose sur la pénétration du produit dans les couches profondes de la peau, mais certains contestent cette capacité de pénétration. Il n'y a pas d'étude gouvernementale sur l'innocuité de la triéthylamine[Quoi ?] sur la peau à long terme. Les seules études qui existent ont été produites par les compagnies pharmaceutiques elles-mêmes[9]. Les nitrosamines sont considérées comme cancérigènes. Le manque de données sur ce produit[Lequel ?] empêche d'évaluer de façon adéquate son effet mutagène.
+Comme toutes les amines, elle peut créer des nitrosamines, mais ceci demeure peu probable avec les basses concentrations utilisées dans les produits cosmétiques. L'efficacité des crèmes antiride repose sur la pénétration du produit dans les couches profondes de la peau, mais certains contestent cette capacité de pénétration. Il n'y a pas d'étude gouvernementale sur l'innocuité de la triéthylamine[Quoi ?] sur la peau à long terme. Les seules études qui existent ont été produites par les compagnies pharmaceutiques elles-mêmes. Les nitrosamines sont considérées comme cancérigènes. Le manque de données sur ce produit[Lequel ?] empêche d'évaluer de façon adéquate son effet mutagène.
 Elle est énumérée sous le programme 3, partie B, de la convention chimique sur les armes car elle peut être employée dans la fabrication du gaz moutarde.
 </t>
         </is>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Tri%C3%A9thanolamine</t>
+          <t>Triéthanolamine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Risques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La triéthanolamine est inflammable. Le feu qui en résulte peut être éteint avec du dioxyde de carbone, de la mousse, de la poudre chimique sèche ou de la mousse d'alcool ; il ne faut jamais utiliser d'eau pulvérisée car elle pourrait provoquer la formation d'écume. De plus, il faut éviter d'utiliser de la mousse pulvérisée sur un bassin chaud en flamme.
 La triéthanolamine est incompatible avec les acides ainsi qu'avec les oxydants forts tels que l'ozone et l'oxygène liquide.
